--- a/pcs_num_trans/1006_pcs_num.xlsx
+++ b/pcs_num_trans/1006_pcs_num.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanaseo\Desktop\gitclone\translation_api\pcs_num_trans\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="시트1" sheetId="1" r:id="rId4"/>
+    <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1762,17 +1770,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1781,36 +1798,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2000,23 +2024,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E543"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="53.38"/>
+    <col min="3" max="3" width="53.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2027,9 +2056,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>336336.0</v>
+        <v>336336</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -2038,9 +2067,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>336335.0</v>
+        <v>336335</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -2049,9 +2078,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>336334.0</v>
+        <v>336334</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -2060,9 +2089,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>336333.0</v>
+        <v>336333</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
@@ -2071,9 +2100,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>336332.0</v>
+        <v>336332</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -2082,9 +2111,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>336331.0</v>
+        <v>336331</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
@@ -2093,9 +2122,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>336330.0</v>
+        <v>336330</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -2104,9 +2133,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>336329.0</v>
+        <v>336329</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
@@ -2115,9 +2144,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>336328.0</v>
+        <v>336328</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
@@ -2126,9 +2155,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>336327.0</v>
+        <v>336327</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
@@ -2137,9 +2166,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>336326.0</v>
+        <v>336326</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
@@ -2148,9 +2177,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>336325.0</v>
+        <v>336325</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
@@ -2159,9 +2188,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>336324.0</v>
+        <v>336324</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
@@ -2170,9 +2199,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>336323.0</v>
+        <v>336323</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -2181,9 +2210,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>336322.0</v>
+        <v>336322</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
@@ -2192,9 +2221,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>336321.0</v>
+        <v>336321</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>13</v>
@@ -2203,9 +2232,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>336320.0</v>
+        <v>336320</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>13</v>
@@ -2214,9 +2243,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>336319.0</v>
+        <v>336319</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
@@ -2225,9 +2254,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>336318.0</v>
+        <v>336318</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>13</v>
@@ -2236,9 +2265,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>336317.0</v>
+        <v>336317</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>13</v>
@@ -2247,9 +2276,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>336316.0</v>
+        <v>336316</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
@@ -2258,9 +2287,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>336315.0</v>
+        <v>336315</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>13</v>
@@ -2269,9 +2298,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>336314.0</v>
+        <v>336314</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>13</v>
@@ -2280,9 +2309,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>336313.0</v>
+        <v>336313</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>13</v>
@@ -2291,9 +2320,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>336312.0</v>
+        <v>336312</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>13</v>
@@ -2302,9 +2331,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>336311.0</v>
+        <v>336311</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>13</v>
@@ -2313,9 +2342,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>336310.0</v>
+        <v>336310</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>13</v>
@@ -2324,9 +2353,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>336309.0</v>
+        <v>336309</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>13</v>
@@ -2335,9 +2364,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>336297.0</v>
+        <v>336297</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>36</v>
@@ -2346,9 +2375,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>336296.0</v>
+        <v>336296</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>36</v>
@@ -2357,9 +2386,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>336295.0</v>
+        <v>336295</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>36</v>
@@ -2368,9 +2397,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>336294.0</v>
+        <v>336294</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>36</v>
@@ -2379,9 +2408,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>336293.0</v>
+        <v>336293</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>36</v>
@@ -2390,9 +2419,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>336292.0</v>
+        <v>336292</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>36</v>
@@ -2401,9 +2430,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>336291.0</v>
+        <v>336291</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>36</v>
@@ -2412,9 +2441,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>336290.0</v>
+        <v>336290</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>36</v>
@@ -2423,9 +2452,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>336289.0</v>
+        <v>336289</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>36</v>
@@ -2434,9 +2463,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>336288.0</v>
+        <v>336288</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>36</v>
@@ -2445,9 +2474,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>336287.0</v>
+        <v>336287</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>36</v>
@@ -2456,9 +2485,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>336286.0</v>
+        <v>336286</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>36</v>
@@ -2467,9 +2496,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>336285.0</v>
+        <v>336285</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>36</v>
@@ -2478,9 +2507,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>336284.0</v>
+        <v>336284</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>36</v>
@@ -2489,9 +2518,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>336283.0</v>
+        <v>336283</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>36</v>
@@ -2500,9 +2529,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>336282.0</v>
+        <v>336282</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>36</v>
@@ -2511,9 +2540,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>336281.0</v>
+        <v>336281</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>36</v>
@@ -2522,9 +2551,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>336280.0</v>
+        <v>336280</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>36</v>
@@ -2533,9 +2562,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>336279.0</v>
+        <v>336279</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>36</v>
@@ -2544,9 +2573,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>336278.0</v>
+        <v>336278</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>36</v>
@@ -2555,9 +2584,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>336277.0</v>
+        <v>336277</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>36</v>
@@ -2566,9 +2595,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>336276.0</v>
+        <v>336276</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>36</v>
@@ -2577,9 +2606,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>336275.0</v>
+        <v>336275</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>36</v>
@@ -2588,9 +2617,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>336274.0</v>
+        <v>336274</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>36</v>
@@ -2599,9 +2628,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>336273.0</v>
+        <v>336273</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>36</v>
@@ -2610,9 +2639,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>336272.0</v>
+        <v>336272</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>36</v>
@@ -2621,9 +2650,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>336271.0</v>
+        <v>336271</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>36</v>
@@ -2632,9 +2661,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>336270.0</v>
+        <v>336270</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>36</v>
@@ -2643,9 +2672,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>336269.0</v>
+        <v>336269</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>36</v>
@@ -2654,9 +2683,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>336268.0</v>
+        <v>336268</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>36</v>
@@ -2665,9 +2694,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>336267.0</v>
+        <v>336267</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>36</v>
@@ -2676,9 +2705,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>336266.0</v>
+        <v>336266</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>36</v>
@@ -2687,9 +2716,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>336265.0</v>
+        <v>336265</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>36</v>
@@ -2698,9 +2727,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>336264.0</v>
+        <v>336264</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>36</v>
@@ -2709,9 +2738,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>336263.0</v>
+        <v>336263</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>36</v>
@@ -2720,9 +2749,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>336262.0</v>
+        <v>336262</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>36</v>
@@ -2731,9 +2760,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>336261.0</v>
+        <v>336261</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>36</v>
@@ -2742,9 +2771,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>336260.0</v>
+        <v>336260</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>36</v>
@@ -2753,9 +2782,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>336259.0</v>
+        <v>336259</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>36</v>
@@ -2764,9 +2793,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>336258.0</v>
+        <v>336258</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>36</v>
@@ -2775,9 +2804,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>336257.0</v>
+        <v>336257</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>36</v>
@@ -2786,9 +2815,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>336256.0</v>
+        <v>336256</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>36</v>
@@ -2797,9 +2826,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>336255.0</v>
+        <v>336255</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>36</v>
@@ -2808,9 +2837,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>336254.0</v>
+        <v>336254</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>36</v>
@@ -2819,9 +2848,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>336253.0</v>
+        <v>336253</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>36</v>
@@ -2830,9 +2859,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>336252.0</v>
+        <v>336252</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>36</v>
@@ -2841,9 +2870,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>336251.0</v>
+        <v>336251</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>36</v>
@@ -2852,9 +2881,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>336250.0</v>
+        <v>336250</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>36</v>
@@ -2863,9 +2892,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>336249.0</v>
+        <v>336249</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>36</v>
@@ -2874,9 +2903,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>336248.0</v>
+        <v>336248</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>36</v>
@@ -2885,9 +2914,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>336247.0</v>
+        <v>336247</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>36</v>
@@ -2896,9 +2925,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>336246.0</v>
+        <v>336246</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>36</v>
@@ -2907,9 +2936,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>336245.0</v>
+        <v>336245</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>36</v>
@@ -2918,9 +2947,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>336244.0</v>
+        <v>336244</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>36</v>
@@ -2929,9 +2958,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>336243.0</v>
+        <v>336243</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>36</v>
@@ -2940,9 +2969,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>336242.0</v>
+        <v>336242</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>36</v>
@@ -2951,9 +2980,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>336241.0</v>
+        <v>336241</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>36</v>
@@ -2962,9 +2991,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>336240.0</v>
+        <v>336240</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>36</v>
@@ -2973,9 +3002,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>336239.0</v>
+        <v>336239</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>36</v>
@@ -2984,9 +3013,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>336238.0</v>
+        <v>336238</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>36</v>
@@ -2995,9 +3024,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>336237.0</v>
+        <v>336237</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>36</v>
@@ -3006,9 +3035,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>336236.0</v>
+        <v>336236</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>36</v>
@@ -3017,9 +3046,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>336235.0</v>
+        <v>336235</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>36</v>
@@ -3028,9 +3057,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>336233.0</v>
+        <v>336233</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>100</v>
@@ -3039,9 +3068,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>336232.0</v>
+        <v>336232</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>100</v>
@@ -3050,9 +3079,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>336231.0</v>
+        <v>336231</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>100</v>
@@ -3061,9 +3090,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>336230.0</v>
+        <v>336230</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>100</v>
@@ -3072,9 +3101,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>336220.0</v>
+        <v>336220</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>105</v>
@@ -3083,9 +3112,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>336219.0</v>
+        <v>336219</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>105</v>
@@ -3094,9 +3123,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>336218.0</v>
+        <v>336218</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>108</v>
@@ -3105,9 +3134,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>336217.0</v>
+        <v>336217</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>105</v>
@@ -3116,9 +3145,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>336216.0</v>
+        <v>336216</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>108</v>
@@ -3127,9 +3156,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>336215.0</v>
+        <v>336215</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>108</v>
@@ -3138,9 +3167,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>336213.0</v>
+        <v>336213</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>113</v>
@@ -3149,9 +3178,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>336211.0</v>
+        <v>336211</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>113</v>
@@ -3160,9 +3189,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>336210.0</v>
+        <v>336210</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>113</v>
@@ -3171,9 +3200,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>336209.0</v>
+        <v>336209</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>113</v>
@@ -3182,9 +3211,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>336208.0</v>
+        <v>336208</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>113</v>
@@ -3193,9 +3222,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>336207.0</v>
+        <v>336207</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>113</v>
@@ -3204,9 +3233,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>336206.0</v>
+        <v>336206</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>113</v>
@@ -3215,9 +3244,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>336205.0</v>
+        <v>336205</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>113</v>
@@ -3226,9 +3255,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>336204.0</v>
+        <v>336204</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>113</v>
@@ -3237,9 +3266,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>336203.0</v>
+        <v>336203</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>113</v>
@@ -3248,9 +3277,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>336202.0</v>
+        <v>336202</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>124</v>
@@ -3259,9 +3288,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>336201.0</v>
+        <v>336201</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>113</v>
@@ -3270,9 +3299,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>336199.0</v>
+        <v>336199</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>127</v>
@@ -3281,9 +3310,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>336198.0</v>
+        <v>336198</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>129</v>
@@ -3292,9 +3321,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>336197.0</v>
+        <v>336197</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>129</v>
@@ -3303,9 +3332,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>336196.0</v>
+        <v>336196</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>129</v>
@@ -3314,9 +3343,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>336195.0</v>
+        <v>336195</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>129</v>
@@ -3325,9 +3354,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>336194.0</v>
+        <v>336194</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>129</v>
@@ -3336,9 +3365,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>336193.0</v>
+        <v>336193</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>129</v>
@@ -3347,9 +3376,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>336192.0</v>
+        <v>336192</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>129</v>
@@ -3358,9 +3387,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>336191.0</v>
+        <v>336191</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>137</v>
@@ -3369,9 +3398,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>336190.0</v>
+        <v>336190</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>137</v>
@@ -3380,9 +3409,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>336189.0</v>
+        <v>336189</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>137</v>
@@ -3391,9 +3420,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>336188.0</v>
+        <v>336188</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>137</v>
@@ -3402,9 +3431,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>336187.0</v>
+        <v>336187</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>137</v>
@@ -3413,9 +3442,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>336186.0</v>
+        <v>336186</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>137</v>
@@ -3424,9 +3453,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>336185.0</v>
+        <v>336185</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>137</v>
@@ -3435,9 +3464,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>336184.0</v>
+        <v>336184</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>137</v>
@@ -3446,9 +3475,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>336183.0</v>
+        <v>336183</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>137</v>
@@ -3457,9 +3486,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>336182.0</v>
+        <v>336182</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>137</v>
@@ -3468,9 +3497,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>336181.0</v>
+        <v>336181</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>137</v>
@@ -3479,9 +3508,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>336180.0</v>
+        <v>336180</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>137</v>
@@ -3490,9 +3519,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>336179.0</v>
+        <v>336179</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>137</v>
@@ -3501,9 +3530,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>336178.0</v>
+        <v>336178</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>137</v>
@@ -3512,9 +3541,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>336177.0</v>
+        <v>336177</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>137</v>
@@ -3523,9 +3552,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>336176.0</v>
+        <v>336176</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>137</v>
@@ -3534,9 +3563,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>336175.0</v>
+        <v>336175</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>137</v>
@@ -3545,9 +3574,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>336174.0</v>
+        <v>336174</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>137</v>
@@ -3556,9 +3585,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>336173.0</v>
+        <v>336173</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>156</v>
@@ -3567,9 +3596,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>336172.0</v>
+        <v>336172</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>156</v>
@@ -3578,9 +3607,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>336171.0</v>
+        <v>336171</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>156</v>
@@ -3589,9 +3618,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>336170.0</v>
+        <v>336170</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>156</v>
@@ -3600,9 +3629,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>336169.0</v>
+        <v>336169</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>156</v>
@@ -3611,9 +3640,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>336168.0</v>
+        <v>336168</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>156</v>
@@ -3622,9 +3651,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>336167.0</v>
+        <v>336167</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>137</v>
@@ -3633,9 +3662,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>336166.0</v>
+        <v>336166</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>137</v>
@@ -3644,9 +3673,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>336165.0</v>
+        <v>336165</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>137</v>
@@ -3655,9 +3684,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>336164.0</v>
+        <v>336164</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>156</v>
@@ -3666,9 +3695,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>336163.0</v>
+        <v>336163</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>137</v>
@@ -3677,9 +3706,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>336162.0</v>
+        <v>336162</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>168</v>
@@ -3688,9 +3717,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>336161.0</v>
+        <v>336161</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>137</v>
@@ -3699,9 +3728,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>336160.0</v>
+        <v>336160</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>137</v>
@@ -3710,9 +3739,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>336159.0</v>
+        <v>336159</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>137</v>
@@ -3721,9 +3750,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>336158.0</v>
+        <v>336158</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>137</v>
@@ -3732,9 +3761,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>336157.0</v>
+        <v>336157</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>137</v>
@@ -3743,9 +3772,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>336156.0</v>
+        <v>336156</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>156</v>
@@ -3754,9 +3783,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>336155.0</v>
+        <v>336155</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>137</v>
@@ -3765,9 +3794,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>336154.0</v>
+        <v>336154</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>156</v>
@@ -3776,9 +3805,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>336153.0</v>
+        <v>336153</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>156</v>
@@ -3787,9 +3816,9 @@
         <v>178</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>336152.0</v>
+        <v>336152</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>156</v>
@@ -3798,9 +3827,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>336151.0</v>
+        <v>336151</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>156</v>
@@ -3809,9 +3838,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>336150.0</v>
+        <v>336150</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>156</v>
@@ -3820,9 +3849,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>336149.0</v>
+        <v>336149</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>156</v>
@@ -3831,9 +3860,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>336148.0</v>
+        <v>336148</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>156</v>
@@ -3842,9 +3871,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>336147.0</v>
+        <v>336147</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>156</v>
@@ -3853,9 +3882,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>336146.0</v>
+        <v>336146</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>156</v>
@@ -3864,9 +3893,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>336145.0</v>
+        <v>336145</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>156</v>
@@ -3875,9 +3904,9 @@
         <v>186</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>336144.0</v>
+        <v>336144</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>187</v>
@@ -3886,9 +3915,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>336143.0</v>
+        <v>336143</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>187</v>
@@ -3897,9 +3926,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>336142.0</v>
+        <v>336142</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>187</v>
@@ -3908,9 +3937,9 @@
         <v>190</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>336141.0</v>
+        <v>336141</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>137</v>
@@ -3919,9 +3948,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>336140.0</v>
+        <v>336140</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>137</v>
@@ -3930,9 +3959,9 @@
         <v>192</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>336139.0</v>
+        <v>336139</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>137</v>
@@ -3941,9 +3970,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>336138.0</v>
+        <v>336138</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>137</v>
@@ -3952,9 +3981,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>336137.0</v>
+        <v>336137</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>137</v>
@@ -3963,9 +3992,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>336136.0</v>
+        <v>336136</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>137</v>
@@ -3974,9 +4003,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>336135.0</v>
+        <v>336135</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>137</v>
@@ -3985,9 +4014,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>336134.0</v>
+        <v>336134</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>137</v>
@@ -3996,9 +4025,9 @@
         <v>198</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>336133.0</v>
+        <v>336133</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>137</v>
@@ -4007,9 +4036,9 @@
         <v>199</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>336132.0</v>
+        <v>336132</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>137</v>
@@ -4018,9 +4047,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <v>336131.0</v>
+        <v>336131</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>137</v>
@@ -4029,9 +4058,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <v>336130.0</v>
+        <v>336130</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>137</v>
@@ -4040,9 +4069,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>336129.0</v>
+        <v>336129</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>137</v>
@@ -4051,9 +4080,9 @@
         <v>203</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>336128.0</v>
+        <v>336128</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>137</v>
@@ -4062,9 +4091,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <v>336127.0</v>
+        <v>336127</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>137</v>
@@ -4073,9 +4102,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
-        <v>336126.0</v>
+        <v>336126</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>137</v>
@@ -4084,9 +4113,9 @@
         <v>206</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <v>336125.0</v>
+        <v>336125</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>137</v>
@@ -4095,9 +4124,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
-        <v>336124.0</v>
+        <v>336124</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>137</v>
@@ -4106,9 +4135,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
-        <v>336123.0</v>
+        <v>336123</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>137</v>
@@ -4117,9 +4146,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
-        <v>336122.0</v>
+        <v>336122</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>137</v>
@@ -4128,9 +4157,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
-        <v>336121.0</v>
+        <v>336121</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>137</v>
@@ -4139,9 +4168,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
-        <v>336120.0</v>
+        <v>336120</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>137</v>
@@ -4150,9 +4179,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
-        <v>336119.0</v>
+        <v>336119</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>137</v>
@@ -4161,9 +4190,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
-        <v>336118.0</v>
+        <v>336118</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>137</v>
@@ -4172,9 +4201,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
-        <v>336117.0</v>
+        <v>336117</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>137</v>
@@ -4183,9 +4212,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
-        <v>336116.0</v>
+        <v>336116</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>137</v>
@@ -4194,9 +4223,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
-        <v>336115.0</v>
+        <v>336115</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>137</v>
@@ -4205,9 +4234,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
-        <v>336114.0</v>
+        <v>336114</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>137</v>
@@ -4216,9 +4245,9 @@
         <v>218</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
-        <v>336113.0</v>
+        <v>336113</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>137</v>
@@ -4227,9 +4256,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
-        <v>336112.0</v>
+        <v>336112</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>137</v>
@@ -4238,9 +4267,9 @@
         <v>220</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
-        <v>336111.0</v>
+        <v>336111</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>137</v>
@@ -4249,9 +4278,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
-        <v>336110.0</v>
+        <v>336110</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>137</v>
@@ -4260,9 +4289,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
-        <v>336109.0</v>
+        <v>336109</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>137</v>
@@ -4271,9 +4300,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
-        <v>336108.0</v>
+        <v>336108</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>137</v>
@@ -4282,9 +4311,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
-        <v>336107.0</v>
+        <v>336107</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>137</v>
@@ -4293,9 +4322,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
-        <v>336106.0</v>
+        <v>336106</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>137</v>
@@ -4304,9 +4333,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
-        <v>336105.0</v>
+        <v>336105</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>137</v>
@@ -4315,9 +4344,9 @@
         <v>227</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
-        <v>336104.0</v>
+        <v>336104</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>137</v>
@@ -4326,9 +4355,9 @@
         <v>228</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
-        <v>336103.0</v>
+        <v>336103</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>137</v>
@@ -4337,9 +4366,9 @@
         <v>228</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
-        <v>336102.0</v>
+        <v>336102</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>137</v>
@@ -4348,9 +4377,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
-        <v>336101.0</v>
+        <v>336101</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>137</v>
@@ -4359,9 +4388,9 @@
         <v>230</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
-        <v>336100.0</v>
+        <v>336100</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>137</v>
@@ -4370,9 +4399,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
-        <v>336099.0</v>
+        <v>336099</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>137</v>
@@ -4381,9 +4410,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
-        <v>336098.0</v>
+        <v>336098</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>137</v>
@@ -4392,9 +4421,9 @@
         <v>233</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
-        <v>336097.0</v>
+        <v>336097</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>137</v>
@@ -4403,9 +4432,9 @@
         <v>234</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
-        <v>336096.0</v>
+        <v>336096</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>137</v>
@@ -4414,9 +4443,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
-        <v>336095.0</v>
+        <v>336095</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>137</v>
@@ -4425,9 +4454,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
-        <v>336094.0</v>
+        <v>336094</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>137</v>
@@ -4436,9 +4465,9 @@
         <v>237</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
-        <v>336093.0</v>
+        <v>336093</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>137</v>
@@ -4447,9 +4476,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
-        <v>336092.0</v>
+        <v>336092</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>137</v>
@@ -4458,9 +4487,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
-        <v>336091.0</v>
+        <v>336091</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>137</v>
@@ -4469,9 +4498,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
-        <v>336090.0</v>
+        <v>336090</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>137</v>
@@ -4480,9 +4509,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
-        <v>336089.0</v>
+        <v>336089</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>137</v>
@@ -4491,9 +4520,9 @@
         <v>242</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
-        <v>336088.0</v>
+        <v>336088</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>137</v>
@@ -4502,9 +4531,9 @@
         <v>243</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
-        <v>336087.0</v>
+        <v>336087</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>137</v>
@@ -4513,9 +4542,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
-        <v>336086.0</v>
+        <v>336086</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>137</v>
@@ -4524,9 +4553,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
-        <v>336085.0</v>
+        <v>336085</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>137</v>
@@ -4535,9 +4564,9 @@
         <v>246</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
-        <v>336084.0</v>
+        <v>336084</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>137</v>
@@ -4546,9 +4575,9 @@
         <v>247</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
-        <v>336083.0</v>
+        <v>336083</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>137</v>
@@ -4557,9 +4586,9 @@
         <v>248</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
-        <v>336082.0</v>
+        <v>336082</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>137</v>
@@ -4568,9 +4597,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
-        <v>336081.0</v>
+        <v>336081</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>137</v>
@@ -4579,9 +4608,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
-        <v>336080.0</v>
+        <v>336080</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>137</v>
@@ -4590,9 +4619,9 @@
         <v>251</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
-        <v>336079.0</v>
+        <v>336079</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>137</v>
@@ -4601,9 +4630,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
-        <v>336078.0</v>
+        <v>336078</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>253</v>
@@ -4612,9 +4641,9 @@
         <v>254</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
-        <v>336077.0</v>
+        <v>336077</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>253</v>
@@ -4623,9 +4652,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
-        <v>336076.0</v>
+        <v>336076</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>253</v>
@@ -4634,9 +4663,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
-        <v>336075.0</v>
+        <v>336075</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>253</v>
@@ -4645,9 +4674,9 @@
         <v>257</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
-        <v>336074.0</v>
+        <v>336074</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>253</v>
@@ -4656,9 +4685,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
-        <v>336073.0</v>
+        <v>336073</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>253</v>
@@ -4667,9 +4696,9 @@
         <v>259</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
-        <v>336072.0</v>
+        <v>336072</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>253</v>
@@ -4678,9 +4707,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
-        <v>336071.0</v>
+        <v>336071</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>253</v>
@@ -4689,9 +4718,9 @@
         <v>261</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
-        <v>336070.0</v>
+        <v>336070</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>253</v>
@@ -4700,9 +4729,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
-        <v>336069.0</v>
+        <v>336069</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>253</v>
@@ -4711,9 +4740,9 @@
         <v>263</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
-        <v>336068.0</v>
+        <v>336068</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>253</v>
@@ -4722,9 +4751,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
-        <v>336067.0</v>
+        <v>336067</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>253</v>
@@ -4733,9 +4762,9 @@
         <v>265</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
-        <v>336066.0</v>
+        <v>336066</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>253</v>
@@ -4744,9 +4773,9 @@
         <v>266</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
-        <v>336065.0</v>
+        <v>336065</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>253</v>
@@ -4755,9 +4784,9 @@
         <v>267</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
-        <v>336064.0</v>
+        <v>336064</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>253</v>
@@ -4766,9 +4795,9 @@
         <v>268</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
-        <v>336063.0</v>
+        <v>336063</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>253</v>
@@ -4777,9 +4806,9 @@
         <v>269</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
-        <v>336062.0</v>
+        <v>336062</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>253</v>
@@ -4788,9 +4817,9 @@
         <v>270</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
-        <v>336061.0</v>
+        <v>336061</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>253</v>
@@ -4799,9 +4828,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
-        <v>336060.0</v>
+        <v>336060</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>253</v>
@@ -4810,9 +4839,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
-        <v>336059.0</v>
+        <v>336059</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>253</v>
@@ -4821,9 +4850,9 @@
         <v>273</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
-        <v>336058.0</v>
+        <v>336058</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>253</v>
@@ -4832,9 +4861,9 @@
         <v>274</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
-        <v>336057.0</v>
+        <v>336057</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>253</v>
@@ -4843,9 +4872,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
-        <v>336056.0</v>
+        <v>336056</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>253</v>
@@ -4854,9 +4883,9 @@
         <v>276</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
-        <v>336055.0</v>
+        <v>336055</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>253</v>
@@ -4865,9 +4894,9 @@
         <v>277</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
-        <v>336054.0</v>
+        <v>336054</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>253</v>
@@ -4876,9 +4905,9 @@
         <v>278</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
-        <v>336053.0</v>
+        <v>336053</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>253</v>
@@ -4887,9 +4916,9 @@
         <v>279</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
-        <v>336052.0</v>
+        <v>336052</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>253</v>
@@ -4898,9 +4927,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
-        <v>336051.0</v>
+        <v>336051</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>253</v>
@@ -4909,9 +4938,9 @@
         <v>281</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
-        <v>336050.0</v>
+        <v>336050</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>253</v>
@@ -4920,9 +4949,9 @@
         <v>282</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
-        <v>336049.0</v>
+        <v>336049</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>253</v>
@@ -4931,9 +4960,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
-        <v>336048.0</v>
+        <v>336048</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>253</v>
@@ -4942,9 +4971,9 @@
         <v>284</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
-        <v>336047.0</v>
+        <v>336047</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>253</v>
@@ -4953,9 +4982,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
-        <v>336046.0</v>
+        <v>336046</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>253</v>
@@ -4964,9 +4993,9 @@
         <v>286</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
-        <v>336045.0</v>
+        <v>336045</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>253</v>
@@ -4975,9 +5004,9 @@
         <v>287</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
-        <v>336044.0</v>
+        <v>336044</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>253</v>
@@ -4986,9 +5015,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
-        <v>336043.0</v>
+        <v>336043</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>253</v>
@@ -4997,9 +5026,9 @@
         <v>289</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
-        <v>336042.0</v>
+        <v>336042</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>253</v>
@@ -5008,9 +5037,9 @@
         <v>290</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
-        <v>336041.0</v>
+        <v>336041</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>253</v>
@@ -5019,9 +5048,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
-        <v>336040.0</v>
+        <v>336040</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>253</v>
@@ -5030,9 +5059,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
-        <v>336039.0</v>
+        <v>336039</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>253</v>
@@ -5041,9 +5070,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
-        <v>336038.0</v>
+        <v>336038</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>294</v>
@@ -5052,9 +5081,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
-        <v>336037.0</v>
+        <v>336037</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>294</v>
@@ -5063,9 +5092,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
-        <v>336036.0</v>
+        <v>336036</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>294</v>
@@ -5074,9 +5103,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
-        <v>336035.0</v>
+        <v>336035</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>137</v>
@@ -5085,9 +5114,9 @@
         <v>298</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
-        <v>336034.0</v>
+        <v>336034</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>137</v>
@@ -5096,9 +5125,9 @@
         <v>299</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
-        <v>336033.0</v>
+        <v>336033</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>137</v>
@@ -5107,9 +5136,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
-        <v>336032.0</v>
+        <v>336032</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>137</v>
@@ -5118,9 +5147,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
-        <v>336031.0</v>
+        <v>336031</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>137</v>
@@ -5129,9 +5158,9 @@
         <v>302</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
-        <v>336030.0</v>
+        <v>336030</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>137</v>
@@ -5140,9 +5169,9 @@
         <v>303</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
-        <v>336029.0</v>
+        <v>336029</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>137</v>
@@ -5151,9 +5180,9 @@
         <v>304</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
-        <v>336028.0</v>
+        <v>336028</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>137</v>
@@ -5162,9 +5191,9 @@
         <v>305</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
-        <v>336027.0</v>
+        <v>336027</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>137</v>
@@ -5173,9 +5202,9 @@
         <v>306</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
-        <v>336026.0</v>
+        <v>336026</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>137</v>
@@ -5184,9 +5213,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
-        <v>336025.0</v>
+        <v>336025</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>137</v>
@@ -5195,9 +5224,9 @@
         <v>308</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
-        <v>336024.0</v>
+        <v>336024</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>137</v>
@@ -5206,9 +5235,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
-        <v>336023.0</v>
+        <v>336023</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>137</v>
@@ -5217,9 +5246,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
-        <v>336022.0</v>
+        <v>336022</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>137</v>
@@ -5228,9 +5257,9 @@
         <v>311</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
-        <v>336021.0</v>
+        <v>336021</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>137</v>
@@ -5239,9 +5268,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
-        <v>336020.0</v>
+        <v>336020</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>137</v>
@@ -5250,9 +5279,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
-        <v>336019.0</v>
+        <v>336019</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>137</v>
@@ -5261,9 +5290,9 @@
         <v>314</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
-        <v>336018.0</v>
+        <v>336018</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>137</v>
@@ -5272,9 +5301,9 @@
         <v>315</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
-        <v>336017.0</v>
+        <v>336017</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>137</v>
@@ -5283,9 +5312,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
-        <v>336016.0</v>
+        <v>336016</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>137</v>
@@ -5294,9 +5323,9 @@
         <v>317</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
-        <v>336015.0</v>
+        <v>336015</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>137</v>
@@ -5305,9 +5334,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
-        <v>336014.0</v>
+        <v>336014</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>137</v>
@@ -5316,9 +5345,9 @@
         <v>319</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
-        <v>336013.0</v>
+        <v>336013</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>137</v>
@@ -5327,9 +5356,9 @@
         <v>320</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
-        <v>336012.0</v>
+        <v>336012</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>137</v>
@@ -5338,9 +5367,9 @@
         <v>321</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
-        <v>336011.0</v>
+        <v>336011</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>137</v>
@@ -5349,9 +5378,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
-        <v>336010.0</v>
+        <v>336010</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>137</v>
@@ -5360,9 +5389,9 @@
         <v>323</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
-        <v>336009.0</v>
+        <v>336009</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>137</v>
@@ -5371,9 +5400,9 @@
         <v>324</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
-        <v>336008.0</v>
+        <v>336008</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>137</v>
@@ -5382,9 +5411,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
-        <v>336007.0</v>
+        <v>336007</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>137</v>
@@ -5393,9 +5422,9 @@
         <v>326</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
-        <v>336006.0</v>
+        <v>336006</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>137</v>
@@ -5404,9 +5433,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
-        <v>336005.0</v>
+        <v>336005</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>137</v>
@@ -5415,9 +5444,9 @@
         <v>328</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
-        <v>336004.0</v>
+        <v>336004</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>137</v>
@@ -5426,9 +5455,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
-        <v>336003.0</v>
+        <v>336003</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>137</v>
@@ -5437,9 +5466,9 @@
         <v>330</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
-        <v>336002.0</v>
+        <v>336002</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>137</v>
@@ -5448,9 +5477,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
-        <v>336001.0</v>
+        <v>336001</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>137</v>
@@ -5459,9 +5488,9 @@
         <v>332</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
-        <v>336000.0</v>
+        <v>336000</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>137</v>
@@ -5470,9 +5499,9 @@
         <v>333</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
-        <v>335999.0</v>
+        <v>335999</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>137</v>
@@ -5481,9 +5510,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
-        <v>335998.0</v>
+        <v>335998</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>137</v>
@@ -5492,9 +5521,9 @@
         <v>335</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
-        <v>335997.0</v>
+        <v>335997</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>137</v>
@@ -5503,9 +5532,9 @@
         <v>336</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
-        <v>335995.0</v>
+        <v>335995</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>137</v>
@@ -5514,9 +5543,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
-        <v>335994.0</v>
+        <v>335994</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>137</v>
@@ -5525,9 +5554,9 @@
         <v>338</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
-        <v>335993.0</v>
+        <v>335993</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>137</v>
@@ -5536,9 +5565,9 @@
         <v>339</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
-        <v>335992.0</v>
+        <v>335992</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>137</v>
@@ -5547,9 +5576,9 @@
         <v>340</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
-        <v>335991.0</v>
+        <v>335991</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>137</v>
@@ -5558,9 +5587,9 @@
         <v>341</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
-        <v>335990.0</v>
+        <v>335990</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>137</v>
@@ -5569,9 +5598,9 @@
         <v>342</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
-        <v>335989.0</v>
+        <v>335989</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>137</v>
@@ -5580,9 +5609,9 @@
         <v>343</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
-        <v>335988.0</v>
+        <v>335988</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>137</v>
@@ -5591,9 +5620,9 @@
         <v>344</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
-        <v>335986.0</v>
+        <v>335986</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>187</v>
@@ -5602,9 +5631,9 @@
         <v>345</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
-        <v>335985.0</v>
+        <v>335985</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>187</v>
@@ -5613,9 +5642,9 @@
         <v>346</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
-        <v>335984.0</v>
+        <v>335984</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>129</v>
@@ -5624,9 +5653,9 @@
         <v>347</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
-        <v>335983.0</v>
+        <v>335983</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>129</v>
@@ -5635,9 +5664,9 @@
         <v>348</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
-        <v>335982.0</v>
+        <v>335982</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>129</v>
@@ -5646,9 +5675,9 @@
         <v>349</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
-        <v>335981.0</v>
+        <v>335981</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>187</v>
@@ -5657,9 +5686,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
-        <v>335980.0</v>
+        <v>335980</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>187</v>
@@ -5668,9 +5697,9 @@
         <v>351</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
-        <v>335979.0</v>
+        <v>335979</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>352</v>
@@ -5679,9 +5708,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
-        <v>335978.0</v>
+        <v>335978</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>352</v>
@@ -5690,17 +5719,17 @@
         <v>354</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
-        <v>335977.0</v>
+        <v>335977</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
-        <v>335976.0</v>
+        <v>335976</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>352</v>
@@ -5709,9 +5738,9 @@
         <v>356</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
-        <v>335975.0</v>
+        <v>335975</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>352</v>
@@ -5720,9 +5749,9 @@
         <v>357</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
-        <v>335974.0</v>
+        <v>335974</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>352</v>
@@ -5731,9 +5760,9 @@
         <v>358</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
-        <v>335973.0</v>
+        <v>335973</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>352</v>
@@ -5742,9 +5771,9 @@
         <v>359</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
-        <v>335972.0</v>
+        <v>335972</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>352</v>
@@ -5753,9 +5782,9 @@
         <v>360</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
-        <v>335971.0</v>
+        <v>335971</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>352</v>
@@ -5764,9 +5793,9 @@
         <v>361</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
-        <v>335970.0</v>
+        <v>335970</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>352</v>
@@ -5775,9 +5804,9 @@
         <v>362</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
-        <v>335969.0</v>
+        <v>335969</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>352</v>
@@ -5786,9 +5815,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
-        <v>335968.0</v>
+        <v>335968</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>352</v>
@@ -5797,9 +5826,9 @@
         <v>364</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
-        <v>335967.0</v>
+        <v>335967</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>352</v>
@@ -5808,9 +5837,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
-        <v>335966.0</v>
+        <v>335966</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>352</v>
@@ -5819,9 +5848,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
-        <v>335965.0</v>
+        <v>335965</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>352</v>
@@ -5830,9 +5859,9 @@
         <v>367</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
-        <v>335964.0</v>
+        <v>335964</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>352</v>
@@ -5841,9 +5870,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
-        <v>335963.0</v>
+        <v>335963</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>352</v>
@@ -5852,9 +5881,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
-        <v>335962.0</v>
+        <v>335962</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>352</v>
@@ -5863,9 +5892,9 @@
         <v>370</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
-        <v>335961.0</v>
+        <v>335961</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>352</v>
@@ -5874,9 +5903,9 @@
         <v>371</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
-        <v>335960.0</v>
+        <v>335960</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>352</v>
@@ -5885,9 +5914,9 @@
         <v>372</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
-        <v>335959.0</v>
+        <v>335959</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>129</v>
@@ -5896,9 +5925,9 @@
         <v>373</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
-        <v>335958.0</v>
+        <v>335958</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>129</v>
@@ -5907,9 +5936,9 @@
         <v>374</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
-        <v>335957.0</v>
+        <v>335957</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>129</v>
@@ -5918,9 +5947,9 @@
         <v>375</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
-        <v>335956.0</v>
+        <v>335956</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>129</v>
@@ -5929,9 +5958,9 @@
         <v>376</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
-        <v>335955.0</v>
+        <v>335955</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>129</v>
@@ -5940,9 +5969,9 @@
         <v>377</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
-        <v>335954.0</v>
+        <v>335954</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>129</v>
@@ -5951,9 +5980,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
-        <v>335953.0</v>
+        <v>335953</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>129</v>
@@ -5962,9 +5991,9 @@
         <v>379</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
-        <v>335952.0</v>
+        <v>335952</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>129</v>
@@ -5973,9 +6002,9 @@
         <v>380</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
-        <v>335951.0</v>
+        <v>335951</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>129</v>
@@ -5984,9 +6013,9 @@
         <v>381</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
-        <v>335950.0</v>
+        <v>335950</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>129</v>
@@ -5995,9 +6024,9 @@
         <v>382</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
-        <v>335949.0</v>
+        <v>335949</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>129</v>
@@ -6006,9 +6035,9 @@
         <v>383</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
-        <v>335948.0</v>
+        <v>335948</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>129</v>
@@ -6017,9 +6046,9 @@
         <v>384</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
-        <v>335947.0</v>
+        <v>335947</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>129</v>
@@ -6028,9 +6057,9 @@
         <v>385</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
-        <v>335946.0</v>
+        <v>335946</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>129</v>
@@ -6039,9 +6068,9 @@
         <v>386</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
-        <v>335945.0</v>
+        <v>335945</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>129</v>
@@ -6050,9 +6079,9 @@
         <v>387</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
-        <v>335944.0</v>
+        <v>335944</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>129</v>
@@ -6061,9 +6090,9 @@
         <v>388</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
-        <v>335943.0</v>
+        <v>335943</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>129</v>
@@ -6072,9 +6101,9 @@
         <v>389</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
-        <v>335942.0</v>
+        <v>335942</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>129</v>
@@ -6083,9 +6112,9 @@
         <v>390</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
-        <v>335940.0</v>
+        <v>335940</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>129</v>
@@ -6094,9 +6123,9 @@
         <v>391</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
-        <v>335939.0</v>
+        <v>335939</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>129</v>
@@ -6105,9 +6134,9 @@
         <v>392</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
-        <v>335937.0</v>
+        <v>335937</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>129</v>
@@ -6116,9 +6145,9 @@
         <v>393</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
-        <v>335936.0</v>
+        <v>335936</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>129</v>
@@ -6127,9 +6156,9 @@
         <v>394</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
-        <v>335935.0</v>
+        <v>335935</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>129</v>
@@ -6138,9 +6167,9 @@
         <v>395</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
-        <v>335934.0</v>
+        <v>335934</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>129</v>
@@ -6149,9 +6178,9 @@
         <v>396</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
-        <v>335933.0</v>
+        <v>335933</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>129</v>
@@ -6160,9 +6189,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
-        <v>335932.0</v>
+        <v>335932</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>129</v>
@@ -6171,9 +6200,9 @@
         <v>398</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
-        <v>335931.0</v>
+        <v>335931</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>129</v>
@@ -6182,9 +6211,9 @@
         <v>399</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
-        <v>335930.0</v>
+        <v>335930</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>129</v>
@@ -6193,9 +6222,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
-        <v>335929.0</v>
+        <v>335929</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>129</v>
@@ -6204,9 +6233,9 @@
         <v>401</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
-        <v>335928.0</v>
+        <v>335928</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>129</v>
@@ -6215,9 +6244,9 @@
         <v>402</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
-        <v>335927.0</v>
+        <v>335927</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>129</v>
@@ -6226,9 +6255,9 @@
         <v>403</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
-        <v>335926.0</v>
+        <v>335926</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>129</v>
@@ -6237,9 +6266,9 @@
         <v>404</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
-        <v>335925.0</v>
+        <v>335925</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>129</v>
@@ -6248,9 +6277,9 @@
         <v>405</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
-        <v>335924.0</v>
+        <v>335924</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>129</v>
@@ -6259,9 +6288,9 @@
         <v>406</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
-        <v>335923.0</v>
+        <v>335923</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>129</v>
@@ -6270,9 +6299,9 @@
         <v>407</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
-        <v>335922.0</v>
+        <v>335922</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>129</v>
@@ -6281,9 +6310,9 @@
         <v>408</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
-        <v>335921.0</v>
+        <v>335921</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>409</v>
@@ -6292,9 +6321,9 @@
         <v>410</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
-        <v>335920.0</v>
+        <v>335920</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>409</v>
@@ -6303,9 +6332,9 @@
         <v>411</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
-        <v>335919.0</v>
+        <v>335919</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>409</v>
@@ -6314,9 +6343,9 @@
         <v>412</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
-        <v>335918.0</v>
+        <v>335918</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>409</v>
@@ -6325,9 +6354,9 @@
         <v>413</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
-        <v>335917.0</v>
+        <v>335917</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>409</v>
@@ -6336,9 +6365,9 @@
         <v>414</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
-        <v>335915.0</v>
+        <v>335915</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>415</v>
@@ -6347,9 +6376,9 @@
         <v>416</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
-        <v>335914.0</v>
+        <v>335914</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>415</v>
@@ -6358,9 +6387,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
-        <v>335913.0</v>
+        <v>335913</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>415</v>
@@ -6369,9 +6398,9 @@
         <v>418</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
-        <v>335912.0</v>
+        <v>335912</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>415</v>
@@ -6380,9 +6409,9 @@
         <v>419</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
-        <v>335911.0</v>
+        <v>335911</v>
       </c>
       <c r="B398" s="1" t="s">
         <v>415</v>
@@ -6391,9 +6420,9 @@
         <v>420</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
-        <v>335910.0</v>
+        <v>335910</v>
       </c>
       <c r="B399" s="1" t="s">
         <v>415</v>
@@ -6402,9 +6431,9 @@
         <v>421</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
-        <v>335909.0</v>
+        <v>335909</v>
       </c>
       <c r="B400" s="1" t="s">
         <v>415</v>
@@ -6413,9 +6442,9 @@
         <v>422</v>
       </c>
     </row>
-    <row r="401">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
-        <v>335908.0</v>
+        <v>335908</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>415</v>
@@ -6424,9 +6453,9 @@
         <v>423</v>
       </c>
     </row>
-    <row r="402">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
-        <v>335907.0</v>
+        <v>335907</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>415</v>
@@ -6435,9 +6464,9 @@
         <v>424</v>
       </c>
     </row>
-    <row r="403">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
-        <v>335906.0</v>
+        <v>335906</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>415</v>
@@ -6446,9 +6475,9 @@
         <v>425</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
-        <v>335905.0</v>
+        <v>335905</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>415</v>
@@ -6457,9 +6486,9 @@
         <v>426</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
-        <v>335904.0</v>
+        <v>335904</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>415</v>
@@ -6468,9 +6497,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="406">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
-        <v>335903.0</v>
+        <v>335903</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>415</v>
@@ -6479,9 +6508,9 @@
         <v>428</v>
       </c>
     </row>
-    <row r="407">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
-        <v>335902.0</v>
+        <v>335902</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>415</v>
@@ -6490,9 +6519,9 @@
         <v>429</v>
       </c>
     </row>
-    <row r="408">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
-        <v>335901.0</v>
+        <v>335901</v>
       </c>
       <c r="B408" s="1" t="s">
         <v>415</v>
@@ -6501,9 +6530,9 @@
         <v>430</v>
       </c>
     </row>
-    <row r="409">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
-        <v>335900.0</v>
+        <v>335900</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>415</v>
@@ -6512,9 +6541,9 @@
         <v>431</v>
       </c>
     </row>
-    <row r="410">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
-        <v>335899.0</v>
+        <v>335899</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>415</v>
@@ -6523,9 +6552,9 @@
         <v>432</v>
       </c>
     </row>
-    <row r="411">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
-        <v>335898.0</v>
+        <v>335898</v>
       </c>
       <c r="B411" s="1" t="s">
         <v>433</v>
@@ -6534,9 +6563,9 @@
         <v>434</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
-        <v>335897.0</v>
+        <v>335897</v>
       </c>
       <c r="B412" s="1" t="s">
         <v>433</v>
@@ -6545,9 +6574,9 @@
         <v>435</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
-        <v>335896.0</v>
+        <v>335896</v>
       </c>
       <c r="B413" s="1" t="s">
         <v>436</v>
@@ -6556,9 +6585,9 @@
         <v>437</v>
       </c>
     </row>
-    <row r="414">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
-        <v>335895.0</v>
+        <v>335895</v>
       </c>
       <c r="B414" s="1" t="s">
         <v>436</v>
@@ -6567,9 +6596,9 @@
         <v>438</v>
       </c>
     </row>
-    <row r="415">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
-        <v>335894.0</v>
+        <v>335894</v>
       </c>
       <c r="B415" s="1" t="s">
         <v>436</v>
@@ -6578,9 +6607,9 @@
         <v>439</v>
       </c>
     </row>
-    <row r="416">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
-        <v>335893.0</v>
+        <v>335893</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>436</v>
@@ -6589,9 +6618,9 @@
         <v>440</v>
       </c>
     </row>
-    <row r="417">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
-        <v>335892.0</v>
+        <v>335892</v>
       </c>
       <c r="B417" s="1" t="s">
         <v>436</v>
@@ -6600,9 +6629,9 @@
         <v>441</v>
       </c>
     </row>
-    <row r="418">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
-        <v>335891.0</v>
+        <v>335891</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>436</v>
@@ -6611,9 +6640,9 @@
         <v>442</v>
       </c>
     </row>
-    <row r="419">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
-        <v>335890.0</v>
+        <v>335890</v>
       </c>
       <c r="B419" s="1" t="s">
         <v>436</v>
@@ -6622,9 +6651,9 @@
         <v>443</v>
       </c>
     </row>
-    <row r="420">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
-        <v>335889.0</v>
+        <v>335889</v>
       </c>
       <c r="B420" s="1" t="s">
         <v>436</v>
@@ -6633,9 +6662,9 @@
         <v>444</v>
       </c>
     </row>
-    <row r="421">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
-        <v>335888.0</v>
+        <v>335888</v>
       </c>
       <c r="B421" s="1" t="s">
         <v>436</v>
@@ -6644,9 +6673,9 @@
         <v>445</v>
       </c>
     </row>
-    <row r="422">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
-        <v>335887.0</v>
+        <v>335887</v>
       </c>
       <c r="B422" s="1" t="s">
         <v>436</v>
@@ -6655,9 +6684,9 @@
         <v>446</v>
       </c>
     </row>
-    <row r="423">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
-        <v>335886.0</v>
+        <v>335886</v>
       </c>
       <c r="B423" s="1" t="s">
         <v>436</v>
@@ -6666,9 +6695,9 @@
         <v>447</v>
       </c>
     </row>
-    <row r="424">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
-        <v>335885.0</v>
+        <v>335885</v>
       </c>
       <c r="B424" s="1" t="s">
         <v>436</v>
@@ -6677,9 +6706,9 @@
         <v>448</v>
       </c>
     </row>
-    <row r="425">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
-        <v>335884.0</v>
+        <v>335884</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>436</v>
@@ -6688,9 +6717,9 @@
         <v>449</v>
       </c>
     </row>
-    <row r="426">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
-        <v>335883.0</v>
+        <v>335883</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>436</v>
@@ -6699,9 +6728,9 @@
         <v>450</v>
       </c>
     </row>
-    <row r="427">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
-        <v>335882.0</v>
+        <v>335882</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>436</v>
@@ -6710,9 +6739,9 @@
         <v>451</v>
       </c>
     </row>
-    <row r="428">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
-        <v>335881.0</v>
+        <v>335881</v>
       </c>
       <c r="B428" s="1" t="s">
         <v>436</v>
@@ -6721,9 +6750,9 @@
         <v>452</v>
       </c>
     </row>
-    <row r="429">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
-        <v>335880.0</v>
+        <v>335880</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>436</v>
@@ -6732,9 +6761,9 @@
         <v>453</v>
       </c>
     </row>
-    <row r="430">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
-        <v>335879.0</v>
+        <v>335879</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>436</v>
@@ -6743,9 +6772,9 @@
         <v>454</v>
       </c>
     </row>
-    <row r="431">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
-        <v>335878.0</v>
+        <v>335878</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>436</v>
@@ -6754,9 +6783,9 @@
         <v>455</v>
       </c>
     </row>
-    <row r="432">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
-        <v>335877.0</v>
+        <v>335877</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>436</v>
@@ -6765,9 +6794,9 @@
         <v>456</v>
       </c>
     </row>
-    <row r="433">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
-        <v>335876.0</v>
+        <v>335876</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>436</v>
@@ -6776,9 +6805,9 @@
         <v>457</v>
       </c>
     </row>
-    <row r="434">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
-        <v>335875.0</v>
+        <v>335875</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>436</v>
@@ -6787,9 +6816,9 @@
         <v>458</v>
       </c>
     </row>
-    <row r="435">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
-        <v>335874.0</v>
+        <v>335874</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>436</v>
@@ -6798,9 +6827,9 @@
         <v>459</v>
       </c>
     </row>
-    <row r="436">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
-        <v>335873.0</v>
+        <v>335873</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>436</v>
@@ -6809,9 +6838,9 @@
         <v>460</v>
       </c>
     </row>
-    <row r="437">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
-        <v>335872.0</v>
+        <v>335872</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>436</v>
@@ -6820,9 +6849,9 @@
         <v>461</v>
       </c>
     </row>
-    <row r="438">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
-        <v>335871.0</v>
+        <v>335871</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>436</v>
@@ -6831,9 +6860,9 @@
         <v>462</v>
       </c>
     </row>
-    <row r="439">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
-        <v>335870.0</v>
+        <v>335870</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>436</v>
@@ -6842,9 +6871,9 @@
         <v>463</v>
       </c>
     </row>
-    <row r="440">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
-        <v>335869.0</v>
+        <v>335869</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>436</v>
@@ -6853,9 +6882,9 @@
         <v>464</v>
       </c>
     </row>
-    <row r="441">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
-        <v>335868.0</v>
+        <v>335868</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>465</v>
@@ -6864,9 +6893,9 @@
         <v>466</v>
       </c>
     </row>
-    <row r="442">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
-        <v>335867.0</v>
+        <v>335867</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>467</v>
@@ -6875,9 +6904,9 @@
         <v>468</v>
       </c>
     </row>
-    <row r="443">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
-        <v>335866.0</v>
+        <v>335866</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>467</v>
@@ -6886,9 +6915,9 @@
         <v>469</v>
       </c>
     </row>
-    <row r="444">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
-        <v>335865.0</v>
+        <v>335865</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>105</v>
@@ -6897,9 +6926,9 @@
         <v>470</v>
       </c>
     </row>
-    <row r="445">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
-        <v>335864.0</v>
+        <v>335864</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>105</v>
@@ -6908,9 +6937,9 @@
         <v>471</v>
       </c>
     </row>
-    <row r="446">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
-        <v>335863.0</v>
+        <v>335863</v>
       </c>
       <c r="B446" s="1" t="s">
         <v>105</v>
@@ -6919,9 +6948,9 @@
         <v>472</v>
       </c>
     </row>
-    <row r="447">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
-        <v>335862.0</v>
+        <v>335862</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>105</v>
@@ -6930,9 +6959,9 @@
         <v>473</v>
       </c>
     </row>
-    <row r="448">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
-        <v>335861.0</v>
+        <v>335861</v>
       </c>
       <c r="B448" s="1" t="s">
         <v>127</v>
@@ -6941,9 +6970,9 @@
         <v>474</v>
       </c>
     </row>
-    <row r="449">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
-        <v>335860.0</v>
+        <v>335860</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>127</v>
@@ -6952,9 +6981,9 @@
         <v>475</v>
       </c>
     </row>
-    <row r="450">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
-        <v>335859.0</v>
+        <v>335859</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>127</v>
@@ -6963,9 +6992,9 @@
         <v>476</v>
       </c>
     </row>
-    <row r="451">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
-        <v>335858.0</v>
+        <v>335858</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>477</v>
@@ -6974,9 +7003,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="452">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
-        <v>335857.0</v>
+        <v>335857</v>
       </c>
       <c r="B452" s="1" t="s">
         <v>477</v>
@@ -6985,9 +7014,9 @@
         <v>479</v>
       </c>
     </row>
-    <row r="453">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
-        <v>335856.0</v>
+        <v>335856</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>477</v>
@@ -6996,9 +7025,9 @@
         <v>480</v>
       </c>
     </row>
-    <row r="454">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
-        <v>335855.0</v>
+        <v>335855</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>477</v>
@@ -7007,9 +7036,9 @@
         <v>481</v>
       </c>
     </row>
-    <row r="455">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
-        <v>335854.0</v>
+        <v>335854</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>477</v>
@@ -7018,9 +7047,9 @@
         <v>482</v>
       </c>
     </row>
-    <row r="456">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
-        <v>335853.0</v>
+        <v>335853</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>477</v>
@@ -7029,9 +7058,9 @@
         <v>483</v>
       </c>
     </row>
-    <row r="457">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
-        <v>335852.0</v>
+        <v>335852</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>477</v>
@@ -7040,9 +7069,9 @@
         <v>484</v>
       </c>
     </row>
-    <row r="458">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
-        <v>335851.0</v>
+        <v>335851</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>477</v>
@@ -7051,9 +7080,9 @@
         <v>485</v>
       </c>
     </row>
-    <row r="459">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
-        <v>335850.0</v>
+        <v>335850</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>477</v>
@@ -7062,9 +7091,9 @@
         <v>486</v>
       </c>
     </row>
-    <row r="460">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
-        <v>335849.0</v>
+        <v>335849</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>477</v>
@@ -7073,9 +7102,9 @@
         <v>487</v>
       </c>
     </row>
-    <row r="461">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
-        <v>335848.0</v>
+        <v>335848</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>477</v>
@@ -7084,9 +7113,9 @@
         <v>488</v>
       </c>
     </row>
-    <row r="462">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
-        <v>335847.0</v>
+        <v>335847</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>477</v>
@@ -7095,9 +7124,9 @@
         <v>489</v>
       </c>
     </row>
-    <row r="463">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
-        <v>335846.0</v>
+        <v>335846</v>
       </c>
       <c r="B463" s="1" t="s">
         <v>477</v>
@@ -7106,9 +7135,9 @@
         <v>490</v>
       </c>
     </row>
-    <row r="464">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
-        <v>335845.0</v>
+        <v>335845</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>491</v>
@@ -7117,9 +7146,9 @@
         <v>492</v>
       </c>
     </row>
-    <row r="465">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
-        <v>335844.0</v>
+        <v>335844</v>
       </c>
       <c r="B465" s="1" t="s">
         <v>477</v>
@@ -7128,9 +7157,9 @@
         <v>493</v>
       </c>
     </row>
-    <row r="466">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
-        <v>335843.0</v>
+        <v>335843</v>
       </c>
       <c r="B466" s="1" t="s">
         <v>477</v>
@@ -7139,9 +7168,9 @@
         <v>494</v>
       </c>
     </row>
-    <row r="467">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
-        <v>335842.0</v>
+        <v>335842</v>
       </c>
       <c r="B467" s="1" t="s">
         <v>477</v>
@@ -7150,9 +7179,9 @@
         <v>495</v>
       </c>
     </row>
-    <row r="468">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
-        <v>335841.0</v>
+        <v>335841</v>
       </c>
       <c r="B468" s="1" t="s">
         <v>467</v>
@@ -7161,9 +7190,9 @@
         <v>496</v>
       </c>
     </row>
-    <row r="469">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
-        <v>335840.0</v>
+        <v>335840</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>467</v>
@@ -7172,9 +7201,9 @@
         <v>496</v>
       </c>
     </row>
-    <row r="470">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
-        <v>335839.0</v>
+        <v>335839</v>
       </c>
       <c r="B470" s="1" t="s">
         <v>168</v>
@@ -7183,9 +7212,9 @@
         <v>497</v>
       </c>
     </row>
-    <row r="471">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
-        <v>335838.0</v>
+        <v>335838</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>168</v>
@@ -7194,9 +7223,9 @@
         <v>498</v>
       </c>
     </row>
-    <row r="472">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
-        <v>335837.0</v>
+        <v>335837</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>467</v>
@@ -7205,9 +7234,9 @@
         <v>496</v>
       </c>
     </row>
-    <row r="473">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
-        <v>335836.0</v>
+        <v>335836</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>499</v>
@@ -7216,9 +7245,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="474">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
-        <v>335835.0</v>
+        <v>335835</v>
       </c>
       <c r="B474" s="1" t="s">
         <v>501</v>
@@ -7227,9 +7256,9 @@
         <v>502</v>
       </c>
     </row>
-    <row r="475">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
-        <v>335834.0</v>
+        <v>335834</v>
       </c>
       <c r="B475" s="1" t="s">
         <v>501</v>
@@ -7238,9 +7267,9 @@
         <v>503</v>
       </c>
     </row>
-    <row r="476">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
-        <v>335833.0</v>
+        <v>335833</v>
       </c>
       <c r="B476" s="1" t="s">
         <v>501</v>
@@ -7249,9 +7278,9 @@
         <v>504</v>
       </c>
     </row>
-    <row r="477">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
-        <v>335667.0</v>
+        <v>335667</v>
       </c>
       <c r="B477" s="1" t="s">
         <v>505</v>
@@ -7260,9 +7289,9 @@
         <v>506</v>
       </c>
     </row>
-    <row r="478">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
-        <v>335666.0</v>
+        <v>335666</v>
       </c>
       <c r="B478" s="1" t="s">
         <v>505</v>
@@ -7271,9 +7300,9 @@
         <v>507</v>
       </c>
     </row>
-    <row r="479">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
-        <v>335665.0</v>
+        <v>335665</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>505</v>
@@ -7282,9 +7311,9 @@
         <v>508</v>
       </c>
     </row>
-    <row r="480">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
-        <v>335664.0</v>
+        <v>335664</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>505</v>
@@ -7293,9 +7322,9 @@
         <v>509</v>
       </c>
     </row>
-    <row r="481">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
-        <v>335663.0</v>
+        <v>335663</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>505</v>
@@ -7304,9 +7333,9 @@
         <v>510</v>
       </c>
     </row>
-    <row r="482">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
-        <v>335662.0</v>
+        <v>335662</v>
       </c>
       <c r="B482" s="1" t="s">
         <v>505</v>
@@ -7315,9 +7344,9 @@
         <v>511</v>
       </c>
     </row>
-    <row r="483">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
-        <v>335661.0</v>
+        <v>335661</v>
       </c>
       <c r="B483" s="1" t="s">
         <v>505</v>
@@ -7326,9 +7355,9 @@
         <v>512</v>
       </c>
     </row>
-    <row r="484">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
-        <v>335660.0</v>
+        <v>335660</v>
       </c>
       <c r="B484" s="1" t="s">
         <v>505</v>
@@ -7337,9 +7366,9 @@
         <v>513</v>
       </c>
     </row>
-    <row r="485">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
-        <v>335659.0</v>
+        <v>335659</v>
       </c>
       <c r="B485" s="1" t="s">
         <v>505</v>
@@ -7348,9 +7377,9 @@
         <v>514</v>
       </c>
     </row>
-    <row r="486">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
-        <v>335658.0</v>
+        <v>335658</v>
       </c>
       <c r="B486" s="1" t="s">
         <v>505</v>
@@ -7359,9 +7388,9 @@
         <v>515</v>
       </c>
     </row>
-    <row r="487">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
-        <v>335657.0</v>
+        <v>335657</v>
       </c>
       <c r="B487" s="1" t="s">
         <v>505</v>
@@ -7370,9 +7399,9 @@
         <v>516</v>
       </c>
     </row>
-    <row r="488">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
-        <v>335656.0</v>
+        <v>335656</v>
       </c>
       <c r="B488" s="1" t="s">
         <v>505</v>
@@ -7381,9 +7410,9 @@
         <v>517</v>
       </c>
     </row>
-    <row r="489">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
-        <v>335655.0</v>
+        <v>335655</v>
       </c>
       <c r="B489" s="1" t="s">
         <v>505</v>
@@ -7392,9 +7421,9 @@
         <v>518</v>
       </c>
     </row>
-    <row r="490">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
-        <v>335654.0</v>
+        <v>335654</v>
       </c>
       <c r="B490" s="1" t="s">
         <v>505</v>
@@ -7403,9 +7432,9 @@
         <v>519</v>
       </c>
     </row>
-    <row r="491">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
-        <v>335653.0</v>
+        <v>335653</v>
       </c>
       <c r="B491" s="1" t="s">
         <v>505</v>
@@ -7414,9 +7443,9 @@
         <v>520</v>
       </c>
     </row>
-    <row r="492">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
-        <v>335652.0</v>
+        <v>335652</v>
       </c>
       <c r="B492" s="1" t="s">
         <v>505</v>
@@ -7425,9 +7454,9 @@
         <v>521</v>
       </c>
     </row>
-    <row r="493">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
-        <v>335651.0</v>
+        <v>335651</v>
       </c>
       <c r="B493" s="1" t="s">
         <v>505</v>
@@ -7436,9 +7465,9 @@
         <v>522</v>
       </c>
     </row>
-    <row r="494">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
-        <v>335650.0</v>
+        <v>335650</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>505</v>
@@ -7447,9 +7476,9 @@
         <v>523</v>
       </c>
     </row>
-    <row r="495">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
-        <v>335649.0</v>
+        <v>335649</v>
       </c>
       <c r="B495" s="1" t="s">
         <v>505</v>
@@ -7458,9 +7487,9 @@
         <v>524</v>
       </c>
     </row>
-    <row r="496">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
-        <v>335648.0</v>
+        <v>335648</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>505</v>
@@ -7469,9 +7498,9 @@
         <v>525</v>
       </c>
     </row>
-    <row r="497">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
-        <v>335647.0</v>
+        <v>335647</v>
       </c>
       <c r="B497" s="1" t="s">
         <v>505</v>
@@ -7480,9 +7509,9 @@
         <v>526</v>
       </c>
     </row>
-    <row r="498">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
-        <v>335646.0</v>
+        <v>335646</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>505</v>
@@ -7491,9 +7520,9 @@
         <v>527</v>
       </c>
     </row>
-    <row r="499">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
-        <v>335645.0</v>
+        <v>335645</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>505</v>
@@ -7502,9 +7531,9 @@
         <v>528</v>
       </c>
     </row>
-    <row r="500">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
-        <v>335644.0</v>
+        <v>335644</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>505</v>
@@ -7513,9 +7542,9 @@
         <v>529</v>
       </c>
     </row>
-    <row r="501">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
-        <v>335643.0</v>
+        <v>335643</v>
       </c>
       <c r="B501" s="1" t="s">
         <v>505</v>
@@ -7524,9 +7553,9 @@
         <v>530</v>
       </c>
     </row>
-    <row r="502">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
-        <v>335642.0</v>
+        <v>335642</v>
       </c>
       <c r="B502" s="1" t="s">
         <v>505</v>
@@ -7535,9 +7564,9 @@
         <v>531</v>
       </c>
     </row>
-    <row r="503">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
-        <v>335641.0</v>
+        <v>335641</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>505</v>
@@ -7546,9 +7575,9 @@
         <v>532</v>
       </c>
     </row>
-    <row r="504">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
-        <v>335640.0</v>
+        <v>335640</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>505</v>
@@ -7557,9 +7586,9 @@
         <v>533</v>
       </c>
     </row>
-    <row r="505">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
-        <v>335639.0</v>
+        <v>335639</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>505</v>
@@ -7568,9 +7597,9 @@
         <v>534</v>
       </c>
     </row>
-    <row r="506">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
-        <v>335638.0</v>
+        <v>335638</v>
       </c>
       <c r="B506" s="1" t="s">
         <v>505</v>
@@ -7579,9 +7608,9 @@
         <v>535</v>
       </c>
     </row>
-    <row r="507">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
-        <v>335637.0</v>
+        <v>335637</v>
       </c>
       <c r="B507" s="1" t="s">
         <v>505</v>
@@ -7590,9 +7619,9 @@
         <v>536</v>
       </c>
     </row>
-    <row r="508">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
-        <v>335636.0</v>
+        <v>335636</v>
       </c>
       <c r="B508" s="1" t="s">
         <v>505</v>
@@ -7601,9 +7630,9 @@
         <v>537</v>
       </c>
     </row>
-    <row r="509">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
-        <v>335635.0</v>
+        <v>335635</v>
       </c>
       <c r="B509" s="1" t="s">
         <v>505</v>
@@ -7612,9 +7641,9 @@
         <v>538</v>
       </c>
     </row>
-    <row r="510">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
-        <v>335634.0</v>
+        <v>335634</v>
       </c>
       <c r="B510" s="1" t="s">
         <v>505</v>
@@ -7623,9 +7652,9 @@
         <v>539</v>
       </c>
     </row>
-    <row r="511">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
-        <v>335633.0</v>
+        <v>335633</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>505</v>
@@ -7634,9 +7663,9 @@
         <v>540</v>
       </c>
     </row>
-    <row r="512">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
-        <v>335631.0</v>
+        <v>335631</v>
       </c>
       <c r="B512" s="1" t="s">
         <v>505</v>
@@ -7645,9 +7674,9 @@
         <v>541</v>
       </c>
     </row>
-    <row r="513">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
-        <v>335630.0</v>
+        <v>335630</v>
       </c>
       <c r="B513" s="1" t="s">
         <v>505</v>
@@ -7656,9 +7685,9 @@
         <v>542</v>
       </c>
     </row>
-    <row r="514">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
-        <v>335629.0</v>
+        <v>335629</v>
       </c>
       <c r="B514" s="1" t="s">
         <v>505</v>
@@ -7667,9 +7696,9 @@
         <v>543</v>
       </c>
     </row>
-    <row r="515">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
-        <v>335628.0</v>
+        <v>335628</v>
       </c>
       <c r="B515" s="1" t="s">
         <v>505</v>
@@ -7678,9 +7707,9 @@
         <v>544</v>
       </c>
     </row>
-    <row r="516">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
-        <v>335627.0</v>
+        <v>335627</v>
       </c>
       <c r="B516" s="1" t="s">
         <v>505</v>
@@ -7689,9 +7718,9 @@
         <v>545</v>
       </c>
     </row>
-    <row r="517">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
-        <v>335626.0</v>
+        <v>335626</v>
       </c>
       <c r="B517" s="1" t="s">
         <v>505</v>
@@ -7700,9 +7729,9 @@
         <v>546</v>
       </c>
     </row>
-    <row r="518">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
-        <v>335625.0</v>
+        <v>335625</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>505</v>
@@ -7711,9 +7740,9 @@
         <v>547</v>
       </c>
     </row>
-    <row r="519">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
-        <v>335624.0</v>
+        <v>335624</v>
       </c>
       <c r="B519" s="1" t="s">
         <v>505</v>
@@ -7722,9 +7751,9 @@
         <v>548</v>
       </c>
     </row>
-    <row r="520">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
-        <v>335623.0</v>
+        <v>335623</v>
       </c>
       <c r="B520" s="1" t="s">
         <v>505</v>
@@ -7733,9 +7762,9 @@
         <v>549</v>
       </c>
     </row>
-    <row r="521">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
-        <v>335622.0</v>
+        <v>335622</v>
       </c>
       <c r="B521" s="1" t="s">
         <v>505</v>
@@ -7744,9 +7773,9 @@
         <v>550</v>
       </c>
     </row>
-    <row r="522">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
-        <v>335621.0</v>
+        <v>335621</v>
       </c>
       <c r="B522" s="1" t="s">
         <v>505</v>
@@ -7755,9 +7784,9 @@
         <v>551</v>
       </c>
     </row>
-    <row r="523">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
-        <v>335565.0</v>
+        <v>335565</v>
       </c>
       <c r="B523" s="1" t="s">
         <v>552</v>
@@ -7766,9 +7795,9 @@
         <v>553</v>
       </c>
     </row>
-    <row r="524">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
-        <v>335563.0</v>
+        <v>335563</v>
       </c>
       <c r="B524" s="1" t="s">
         <v>552</v>
@@ -7777,9 +7806,9 @@
         <v>554</v>
       </c>
     </row>
-    <row r="525">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
-        <v>335498.0</v>
+        <v>335498</v>
       </c>
       <c r="B525" s="1" t="s">
         <v>555</v>
@@ -7788,9 +7817,9 @@
         <v>556</v>
       </c>
     </row>
-    <row r="526">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
-        <v>333106.0</v>
+        <v>333106</v>
       </c>
       <c r="B526" s="1" t="s">
         <v>557</v>
@@ -7799,9 +7828,9 @@
         <v>558</v>
       </c>
     </row>
-    <row r="527">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
-        <v>310318.0</v>
+        <v>310318</v>
       </c>
       <c r="B527" s="1" t="s">
         <v>3</v>
@@ -7810,9 +7839,9 @@
         <v>559</v>
       </c>
     </row>
-    <row r="528">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
-        <v>310296.0</v>
+        <v>310296</v>
       </c>
       <c r="B528" s="1" t="s">
         <v>3</v>
@@ -7821,9 +7850,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="529">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
-        <v>309944.0</v>
+        <v>309944</v>
       </c>
       <c r="B529" s="1" t="s">
         <v>352</v>
@@ -7832,9 +7861,9 @@
         <v>561</v>
       </c>
     </row>
-    <row r="530">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
-        <v>304347.0</v>
+        <v>304347</v>
       </c>
       <c r="B530" s="1" t="s">
         <v>562</v>
@@ -7843,9 +7872,9 @@
         <v>563</v>
       </c>
     </row>
-    <row r="531">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
-        <v>302388.0</v>
+        <v>302388</v>
       </c>
       <c r="B531" s="1" t="s">
         <v>156</v>
@@ -7854,9 +7883,9 @@
         <v>564</v>
       </c>
     </row>
-    <row r="532">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
-        <v>302350.0</v>
+        <v>302350</v>
       </c>
       <c r="B532" s="1" t="s">
         <v>565</v>
@@ -7865,9 +7894,9 @@
         <v>566</v>
       </c>
     </row>
-    <row r="533">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
-        <v>302348.0</v>
+        <v>302348</v>
       </c>
       <c r="B533" s="1" t="s">
         <v>565</v>
@@ -7876,9 +7905,9 @@
         <v>567</v>
       </c>
     </row>
-    <row r="534">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
-        <v>282001.0</v>
+        <v>282001</v>
       </c>
       <c r="B534" s="1" t="s">
         <v>568</v>
@@ -7887,9 +7916,9 @@
         <v>569</v>
       </c>
     </row>
-    <row r="535">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
-        <v>280859.0</v>
+        <v>280859</v>
       </c>
       <c r="B535" s="1" t="s">
         <v>570</v>
@@ -7898,9 +7927,9 @@
         <v>571</v>
       </c>
     </row>
-    <row r="536">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
-        <v>279959.0</v>
+        <v>279959</v>
       </c>
       <c r="B536" s="1" t="s">
         <v>552</v>
@@ -7909,9 +7938,9 @@
         <v>572</v>
       </c>
     </row>
-    <row r="537">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
-        <v>271013.0</v>
+        <v>271013</v>
       </c>
       <c r="B537" s="1" t="s">
         <v>565</v>
@@ -7920,9 +7949,9 @@
         <v>573</v>
       </c>
     </row>
-    <row r="538">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
-        <v>270408.0</v>
+        <v>270408</v>
       </c>
       <c r="B538" s="1" t="s">
         <v>574</v>
@@ -7931,9 +7960,9 @@
         <v>575</v>
       </c>
     </row>
-    <row r="539">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
-        <v>265629.0</v>
+        <v>265629</v>
       </c>
       <c r="B539" s="1" t="s">
         <v>576</v>
@@ -7942,9 +7971,9 @@
         <v>577</v>
       </c>
     </row>
-    <row r="540">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
-        <v>265626.0</v>
+        <v>265626</v>
       </c>
       <c r="B540" s="1" t="s">
         <v>576</v>
@@ -7953,9 +7982,9 @@
         <v>578</v>
       </c>
     </row>
-    <row r="541">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
-        <v>265419.0</v>
+        <v>265419</v>
       </c>
       <c r="B541" s="1" t="s">
         <v>576</v>
@@ -7964,9 +7993,9 @@
         <v>579</v>
       </c>
     </row>
-    <row r="542">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
-        <v>252648.0</v>
+        <v>252648</v>
       </c>
       <c r="B542" s="1" t="s">
         <v>505</v>
@@ -7975,9 +8004,9 @@
         <v>580</v>
       </c>
     </row>
-    <row r="543">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
-        <v>226987.0</v>
+        <v>226987</v>
       </c>
       <c r="B543" s="1" t="s">
         <v>565</v>
@@ -7987,6 +8016,7 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>